--- a/ProcessAuto/Students.xlsx
+++ b/ProcessAuto/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukwim\Documents\GitHub\Projects\ProcessAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB038481-AA5B-4725-BA8A-A61CD021BBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEADFC0F-6641-4687-8B5D-B800F40D0BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Иванов</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>poleh@gmail.com</t>
+  </si>
+  <si>
+    <t>Ермаков</t>
+  </si>
+  <si>
+    <t>Викторович</t>
+  </si>
+  <si>
+    <t>ermak@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -625,6 +634,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{B2262D72-3580-43A3-AE6D-895DCDFCC8A8}"/>
@@ -637,6 +663,7 @@
     <hyperlink ref="D7" r:id="rId8" xr:uid="{C59C1E31-A8DB-4126-961D-C632A2503B63}"/>
     <hyperlink ref="D8" r:id="rId9" xr:uid="{911CD7D3-4EAE-41D4-9253-4296F40A744C}"/>
     <hyperlink ref="D9" r:id="rId10" xr:uid="{12D1B53A-AA80-4BDE-A0AB-82B91624AA15}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{1783A4A9-669E-4EE0-96EE-EFF3546AF815}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProcessAuto/Students.xlsx
+++ b/ProcessAuto/Students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukwim\Documents\GitHub\Projects\ProcessAuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukwim\Documents\proc\AutoProcesses\ProcessAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEADFC0F-6641-4687-8B5D-B800F40D0BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CB971C-30E7-48DF-B666-81C4FF1F9682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Иванов</t>
   </si>
@@ -63,15 +63,6 @@
     <t>Petrov@gmail.com</t>
   </si>
   <si>
-    <t>123456qQ!</t>
-  </si>
-  <si>
-    <t>Glekov@gmail.com</t>
-  </si>
-  <si>
-    <t>Glekovkirill@gmail.com</t>
-  </si>
-  <si>
     <t>Глеков</t>
   </si>
   <si>
@@ -81,21 +72,6 @@
     <t>Владиславович</t>
   </si>
   <si>
-    <t>Glekovkirilll@gmail.com</t>
-  </si>
-  <si>
-    <t>1246699h2T@</t>
-  </si>
-  <si>
-    <t>Uktrjd</t>
-  </si>
-  <si>
-    <t>Rbhbkk</t>
-  </si>
-  <si>
-    <t>Dkflbckfdjdbx</t>
-  </si>
-  <si>
     <t>Щегольков</t>
   </si>
   <si>
@@ -105,9 +81,6 @@
     <t>Владимирович</t>
   </si>
   <si>
-    <t>realmatt@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Заварзин </t>
   </si>
   <si>
@@ -139,6 +112,87 @@
   </si>
   <si>
     <t>ermak@gmail.com</t>
+  </si>
+  <si>
+    <t>Скачков</t>
+  </si>
+  <si>
+    <t>Виктор</t>
+  </si>
+  <si>
+    <t>skachkov@gmail.com</t>
+  </si>
+  <si>
+    <t>schegolkov@gmail.com</t>
+  </si>
+  <si>
+    <t>glekov@gmail.com</t>
+  </si>
+  <si>
+    <t>Бреусова</t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>Присяч</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Олегович</t>
+  </si>
+  <si>
+    <t>Жесткова</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Игоревна</t>
+  </si>
+  <si>
+    <t>Борисов</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>Уйманов</t>
+  </si>
+  <si>
+    <t>Бабак</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>breusova@gmail.com</t>
+  </si>
+  <si>
+    <t>prisyach@gmail.com</t>
+  </si>
+  <si>
+    <t>zhestkova@gmail.com</t>
+  </si>
+  <si>
+    <t>borisov@gmail.com</t>
+  </si>
+  <si>
+    <t>uymanov@gmail.com</t>
+  </si>
+  <si>
+    <t>babak@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -467,21 +521,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14.578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7890625" customWidth="1"/>
     <col min="3" max="3" width="20.26171875" customWidth="1"/>
     <col min="4" max="4" width="28.7890625" customWidth="1"/>
     <col min="5" max="5" width="23.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +549,8 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -511,11 +563,8 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -528,28 +577,22 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -560,95 +603,147 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -657,13 +752,17 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{D0DAC337-0BB5-467E-A54A-BB45DF7FFC72}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{FB6BB486-FCD4-48D9-B323-736CAF3E21ED}"/>
     <hyperlink ref="D4" r:id="rId4" xr:uid="{5639F03E-8D5C-44DD-8B02-E5A23B155064}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{29533D84-0CBD-42CA-BFDD-A5DAD21EB474}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{5FFDE69F-07DF-4288-BAEA-2EEFB40DDDC7}"/>
-    <hyperlink ref="E6" r:id="rId7" xr:uid="{5B829AF5-CB7A-4357-8A53-C9B3C23CDF40}"/>
-    <hyperlink ref="D7" r:id="rId8" xr:uid="{C59C1E31-A8DB-4126-961D-C632A2503B63}"/>
-    <hyperlink ref="D8" r:id="rId9" xr:uid="{911CD7D3-4EAE-41D4-9253-4296F40A744C}"/>
-    <hyperlink ref="D9" r:id="rId10" xr:uid="{12D1B53A-AA80-4BDE-A0AB-82B91624AA15}"/>
-    <hyperlink ref="D10" r:id="rId11" xr:uid="{1783A4A9-669E-4EE0-96EE-EFF3546AF815}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{C59C1E31-A8DB-4126-961D-C632A2503B63}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{911CD7D3-4EAE-41D4-9253-4296F40A744C}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{12D1B53A-AA80-4BDE-A0AB-82B91624AA15}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{1783A4A9-669E-4EE0-96EE-EFF3546AF815}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{6809D7C4-A616-4F9B-B0AE-8FF0A08E6DD3}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{CB5ACA7F-F837-4803-BEBB-F13EAF995459}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{6803AAC4-05DB-4EC8-83C2-9CF60AD2EA45}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{419928F6-EF3C-45F6-873D-0827A6C727E7}"/>
+    <hyperlink ref="D13" r:id="rId13" xr:uid="{D8E58D1B-702B-48A6-8BB5-2189380D0C1C}"/>
+    <hyperlink ref="D14" r:id="rId14" xr:uid="{13EBE102-EC88-47A0-9CDB-1C8DC057F8F8}"/>
+    <hyperlink ref="D15" r:id="rId15" xr:uid="{F52CC4FC-8AE3-4DD9-B641-FB69E25B7C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProcessAuto/Students.xlsx
+++ b/ProcessAuto/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukwim\Documents\proc\AutoProcesses\ProcessAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CB971C-30E7-48DF-B666-81C4FF1F9682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5C0CDE-DE9E-469D-9B5D-D4C9E8D43597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Евгеньевич</t>
   </si>
   <si>
-    <t>zavarzin@gmail.com</t>
-  </si>
-  <si>
     <t>Полех</t>
   </si>
   <si>
@@ -102,33 +99,18 @@
     <t>Андреевич</t>
   </si>
   <si>
-    <t>poleh@gmail.com</t>
-  </si>
-  <si>
     <t>Ермаков</t>
   </si>
   <si>
     <t>Викторович</t>
   </si>
   <si>
-    <t>ermak@gmail.com</t>
-  </si>
-  <si>
     <t>Скачков</t>
   </si>
   <si>
     <t>Виктор</t>
   </si>
   <si>
-    <t>skachkov@gmail.com</t>
-  </si>
-  <si>
-    <t>schegolkov@gmail.com</t>
-  </si>
-  <si>
-    <t>glekov@gmail.com</t>
-  </si>
-  <si>
     <t>Бреусова</t>
   </si>
   <si>
@@ -177,22 +159,40 @@
     <t>Михайловна</t>
   </si>
   <si>
-    <t>breusova@gmail.com</t>
-  </si>
-  <si>
-    <t>prisyach@gmail.com</t>
-  </si>
-  <si>
-    <t>zhestkova@gmail.com</t>
-  </si>
-  <si>
-    <t>borisov@gmail.com</t>
-  </si>
-  <si>
-    <t>uymanov@gmail.com</t>
-  </si>
-  <si>
-    <t>babak@gmail.com</t>
+    <t>schegolkovmv@gmail.com</t>
+  </si>
+  <si>
+    <t>glekovkv@gmail.com</t>
+  </si>
+  <si>
+    <t>zavarzinae@gmail.com</t>
+  </si>
+  <si>
+    <t>polehpa@gmail.com</t>
+  </si>
+  <si>
+    <t>ermakovav@gmail.com</t>
+  </si>
+  <si>
+    <t>skachkovvv@gmail.com</t>
+  </si>
+  <si>
+    <t>breusovais@gmail.com</t>
+  </si>
+  <si>
+    <t>prisyachvo@gmail.com</t>
+  </si>
+  <si>
+    <t>zhestkovadi@gmail.com</t>
+  </si>
+  <si>
+    <t>borisoveu@gmail.com</t>
+  </si>
+  <si>
+    <t>uymanovie@gmail.com</t>
+  </si>
+  <si>
+    <t>babakvm@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -589,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -603,7 +603,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -617,60 +617,60 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>50</v>
@@ -678,13 +678,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>51</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>52</v>
@@ -706,13 +706,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>53</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>55</v>
